--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC3732-4ECC-B746-B477-ADF302558D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8DC7F1-0AF2-D54E-A1A0-A91CDE1E73B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
@@ -35,12 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">new sheet </t>
   </si>
   <si>
     <t xml:space="preserve">square </t>
+  </si>
+  <si>
+    <t>circle</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2C004-123D-A14C-B3B9-505451C22602}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -403,6 +406,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8DC7F1-0AF2-D54E-A1A0-A91CDE1E73B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3650B9FE-9C99-9243-A163-39BD247D87B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">square </t>
   </si>
   <si>
-    <t>circle</t>
+    <t>rectangle</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2C004-123D-A14C-B3B9-505451C22602}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,8 +408,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC3732-4ECC-B746-B477-ADF302558D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3650B9FE-9C99-9243-A163-39BD247D87B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
@@ -35,12 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">new sheet </t>
   </si>
   <si>
     <t xml:space="preserve">square </t>
+  </si>
+  <si>
+    <t>rectangle</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2C004-123D-A14C-B3B9-505451C22602}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -403,6 +406,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9318A7B-4DF8-6F46-8FA7-06BBD8DB3ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDD2B29-F880-F84D-945D-9684FB984E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="second_test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">new sheet </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">square </t>
   </si>
@@ -47,7 +43,7 @@
     <t>rectangle</t>
   </si>
   <si>
-    <t>new sheet yes</t>
+    <t>cube</t>
   </si>
 </sst>
 </file>
@@ -409,53 +405,35 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA935B9-1328-534D-B86E-D13EEFC0A42A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADBCF53-DCA7-7F45-9BB6-43799D441BD2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA935B9-1328-534D-B86E-D13EEFC0A42A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3650B9FE-9C99-9243-A163-39BD247D87B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDD2B29-F880-F84D-945D-9684FB984E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
+    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="second_test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,13 +37,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">new sheet </t>
-  </si>
-  <si>
     <t xml:space="preserve">square </t>
   </si>
   <si>
     <t>rectangle</t>
+  </si>
+  <si>
+    <t>cube</t>
   </si>
 </sst>
 </file>
@@ -397,32 +397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2C004-123D-A14C-B3B9-505451C22602}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA935B9-1328-534D-B86E-D13EEFC0A42A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -431,6 +408,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA935B9-1328-534D-B86E-D13EEFC0A42A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3650B9FE-9C99-9243-A163-39BD247D87B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9318A7B-4DF8-6F46-8FA7-06BBD8DB3ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
+    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">new sheet </t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>rectangle</t>
+  </si>
+  <si>
+    <t>new sheet yes</t>
   </si>
 </sst>
 </file>
@@ -397,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2C004-123D-A14C-B3B9-505451C22602}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -419,6 +423,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADBCF53-DCA7-7F45-9BB6-43799D441BD2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA935B9-1328-534D-B86E-D13EEFC0A42A}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDD2B29-F880-F84D-945D-9684FB984E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C858B-D47B-8F49-A8B5-E87F522E4299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">square </t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhombus </t>
+  </si>
+  <si>
+    <t>sphere</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA935B9-1328-534D-B86E-D13EEFC0A42A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,6 +439,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDD2B29-F880-F84D-945D-9684FB984E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D189B17-63E4-7E40-A24D-BA7299F1382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
+    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="second_test" sheetId="2" r:id="rId2"/>
+    <sheet name="third" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">square </t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flat </t>
   </si>
 </sst>
 </file>
@@ -422,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA935B9-1328-534D-B86E-D13EEFC0A42A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +440,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDB35D1-808A-E24D-9365-8A16872E437F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C858B-D47B-8F49-A8B5-E87F522E4299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D9C03-2E1C-7548-8BF0-F35264425FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">square </t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>sphere</t>
+  </si>
+  <si>
+    <t>another one</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA935B9-1328-534D-B86E-D13EEFC0A42A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,6 +452,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waok2hurricane/Desktop/lazima/projects/play-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D189B17-63E4-7E40-A24D-BA7299F1382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ACFA68-D8B5-2540-8DB9-256C69A9BE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
+    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{33E7EB2D-2B52-BB4B-A71E-BD1F0E428788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="second_test" sheetId="2" r:id="rId2"/>
     <sheet name="third" sheetId="3" r:id="rId3"/>
+    <sheet name="fourth" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -446,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDB35D1-808A-E24D-9365-8A16872E437F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -458,4 +459,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E47CBE-D6BD-754C-8290-BF9DE4C19A28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>